--- a/raw_data/20200818_saline/20200818_Sensor0_Test_93.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_93.xlsx
@@ -1,1943 +1,2359 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47D2A6-CA2B-4B11-A705-6FCDFC3089B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>82802.977349</v>
+        <v>82802.977348999993</v>
       </c>
       <c r="B2" s="1">
-        <v>23.000827</v>
+        <v>23.000827000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>910.053000</v>
+        <v>910.053</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.286000</v>
+        <v>-197.286</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>82813.380937</v>
+        <v>82813.380936999994</v>
       </c>
       <c r="G2" s="1">
-        <v>23.003717</v>
+        <v>23.003717000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>927.077000</v>
+        <v>927.077</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.620000</v>
+        <v>-167.62</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>82823.549136</v>
+        <v>82823.549136000001</v>
       </c>
       <c r="L2" s="1">
-        <v>23.006541</v>
+        <v>23.006540999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>949.663000</v>
+        <v>949.66300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.588000</v>
+        <v>-120.58799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>82834.116684</v>
+        <v>82834.116683999993</v>
       </c>
       <c r="Q2" s="1">
         <v>23.009477</v>
       </c>
       <c r="R2" s="1">
-        <v>956.594000</v>
+        <v>956.59400000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.140000</v>
+        <v>-105.14</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>82844.680341</v>
+        <v>82844.680340999999</v>
       </c>
       <c r="V2" s="1">
         <v>23.012411</v>
       </c>
       <c r="W2" s="1">
-        <v>963.377000</v>
+        <v>963.37699999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-91.190400</v>
+        <v>-91.190399999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>82855.112700</v>
+        <v>82855.112699999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.015309</v>
+        <v>23.015308999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>970.852000</v>
+        <v>970.85199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-81.346500</v>
+        <v>-81.346500000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>82866.047138</v>
+        <v>82866.047137999994</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.018346</v>
+        <v>23.018346000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>975.978000</v>
+        <v>975.97799999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.548700</v>
+        <v>-80.548699999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>82876.492388</v>
+        <v>82876.492387999999</v>
       </c>
       <c r="AK2" s="1">
         <v>23.021248</v>
       </c>
       <c r="AL2" s="1">
-        <v>983.974000</v>
+        <v>983.97400000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.945700</v>
+        <v>-87.945700000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>82887.376102</v>
+        <v>82887.376101999995</v>
       </c>
       <c r="AP2" s="1">
-        <v>23.024271</v>
+        <v>23.024270999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>993.164000</v>
+        <v>993.16399999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>82898.117496</v>
+        <v>82898.117496000006</v>
       </c>
       <c r="AU2" s="1">
         <v>23.027255</v>
       </c>
       <c r="AV2" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>82909.334490</v>
+        <v>82909.334489999994</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.030371</v>
+        <v>23.030370999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1014.110000</v>
+        <v>1014.11</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.534000</v>
+        <v>-142.53399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>82920.305003</v>
+        <v>82920.305003000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.033418</v>
+        <v>23.033418000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.906000</v>
+        <v>-226.90600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>82931.313213</v>
+        <v>82931.313213000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>23.036476</v>
       </c>
       <c r="BK2" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.034000</v>
+        <v>-362.03399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>82943.067437</v>
+        <v>82943.067437000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.039741</v>
+        <v>23.039740999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.100000</v>
+        <v>-570.1</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>82953.505710</v>
+        <v>82953.505709999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.042640</v>
+        <v>23.042639999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1417.400000</v>
+        <v>1417.4</v>
       </c>
       <c r="BV2" s="1">
-        <v>-792.007000</v>
+        <v>-792.00699999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>82964.657773</v>
+        <v>82964.657772999999</v>
       </c>
       <c r="BY2" s="1">
         <v>23.045738</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1578.380000</v>
+        <v>1578.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1022.660000</v>
+        <v>-1022.66</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>82975.560849</v>
+        <v>82975.560849000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.048767</v>
+        <v>23.048767000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1982.720000</v>
+        <v>1982.72</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1562.050000</v>
+        <v>-1562.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>82803.405428</v>
+        <v>82803.405427999998</v>
       </c>
       <c r="B3" s="1">
-        <v>23.000946</v>
+        <v>23.000945999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>909.919000</v>
+        <v>909.91899999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.343000</v>
+        <v>-197.34299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>82813.487079</v>
+        <v>82813.487078999999</v>
       </c>
       <c r="G3" s="1">
         <v>23.003746</v>
       </c>
       <c r="H3" s="1">
-        <v>927.086000</v>
+        <v>927.08600000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.780000</v>
+        <v>-166.78</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>82823.969531</v>
+        <v>82823.969530999995</v>
       </c>
       <c r="L3" s="1">
-        <v>23.006658</v>
+        <v>23.006658000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>949.711000</v>
+        <v>949.71100000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.684000</v>
+        <v>-120.684</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>82834.497934</v>
+        <v>82834.497933999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.009583</v>
+        <v>23.009582999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>956.527000</v>
+        <v>956.52700000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.152000</v>
+        <v>-105.152</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>82845.049006</v>
+        <v>82845.049006000001</v>
       </c>
       <c r="V3" s="1">
-        <v>23.012514</v>
+        <v>23.012513999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>963.372000</v>
+        <v>963.37199999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-91.195200</v>
+        <v>-91.1952</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>82855.501200</v>
+        <v>82855.501199999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.015417</v>
+        <v>23.015416999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>970.880000</v>
+        <v>970.88</v>
       </c>
       <c r="AC3" s="1">
-        <v>-81.276600</v>
+        <v>-81.276600000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>82866.759403</v>
+        <v>82866.759403000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.018544</v>
+        <v>23.018543999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>975.981000</v>
+        <v>975.98099999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.620000</v>
+        <v>-80.62</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>82877.220515</v>
+        <v>82877.220514999994</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.021450</v>
+        <v>23.021450000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>983.986000</v>
+        <v>983.98599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.936700</v>
+        <v>-87.936700000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>82887.771942</v>
+        <v>82887.771942000007</v>
       </c>
       <c r="AP3" s="1">
-        <v>23.024381</v>
+        <v>23.024381000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>993.162000</v>
+        <v>993.16200000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.585000</v>
+        <v>-102.58499999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>82898.539560</v>
+        <v>82898.539560000005</v>
       </c>
       <c r="AU3" s="1">
         <v>23.027372</v>
       </c>
       <c r="AV3" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.900000</v>
+        <v>-123.9</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>82909.725338</v>
+        <v>82909.725338000004</v>
       </c>
       <c r="AZ3" s="1">
         <v>23.030479</v>
       </c>
       <c r="BA3" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.521000</v>
+        <v>-142.52099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>82921.014281</v>
+        <v>82921.014280999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.033615</v>
+        <v>23.033615000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.917000</v>
+        <v>-226.917</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>82932.038363</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.036677</v>
+        <v>23.036677000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.081000</v>
+        <v>-362.08100000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>82943.180034</v>
+        <v>82943.180034000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>23.039772</v>
+        <v>23.039771999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.125000</v>
+        <v>-570.125</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>82953.945166</v>
+        <v>82953.945166000005</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.042763</v>
+        <v>23.042763000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1417.360000</v>
+        <v>1417.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-791.969000</v>
+        <v>-791.96900000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>82965.144335</v>
+        <v>82965.144335000005</v>
       </c>
       <c r="BY3" s="1">
         <v>23.045873</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1578.480000</v>
+        <v>1578.48</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1022.650000</v>
+        <v>-1022.65</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>82976.139152</v>
+        <v>82976.139152000003</v>
       </c>
       <c r="CD3" s="1">
         <v>23.048928</v>
       </c>
       <c r="CE3" s="1">
-        <v>1981.230000</v>
+        <v>1981.23</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1563.380000</v>
+        <v>-1563.38</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>82803.740725</v>
+        <v>82803.740724999996</v>
       </c>
       <c r="B4" s="1">
-        <v>23.001039</v>
+        <v>23.001038999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>909.902000</v>
+        <v>909.90200000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.290000</v>
+        <v>-197.29</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>82813.825351</v>
+        <v>82813.825351000007</v>
       </c>
       <c r="G4" s="1">
-        <v>23.003840</v>
+        <v>23.00384</v>
       </c>
       <c r="H4" s="1">
-        <v>926.685000</v>
+        <v>926.68499999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.937000</v>
+        <v>-167.93700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>82824.314282</v>
+        <v>82824.314282000007</v>
       </c>
       <c r="L4" s="1">
-        <v>23.006754</v>
+        <v>23.006754000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>949.674000</v>
+        <v>949.67399999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.784000</v>
+        <v>-120.78400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>82834.846318</v>
+        <v>82834.846317999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.009680</v>
+        <v>23.009679999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>956.515000</v>
+        <v>956.51499999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.126000</v>
+        <v>-105.126</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>82845.390253</v>
+        <v>82845.390253000005</v>
       </c>
       <c r="V4" s="1">
         <v>23.012608</v>
       </c>
       <c r="W4" s="1">
-        <v>963.362000</v>
+        <v>963.36199999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-91.232700</v>
+        <v>-91.232699999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>82856.196095</v>
+        <v>82856.196095000007</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.015610</v>
+        <v>23.015609999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>970.915000</v>
+        <v>970.91499999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-81.263000</v>
+        <v>-81.263000000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>82867.101136</v>
+        <v>82867.101135999997</v>
       </c>
       <c r="AF4" s="1">
         <v>23.018639</v>
       </c>
       <c r="AG4" s="1">
-        <v>975.967000</v>
+        <v>975.96699999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.523700</v>
+        <v>-80.523700000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>82877.568211</v>
+        <v>82877.568211000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.021547</v>
+        <v>23.021547000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>984.013000</v>
+        <v>984.01300000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.950300</v>
+        <v>-87.950299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>82888.149862</v>
+        <v>82888.149862000006</v>
       </c>
       <c r="AP4" s="1">
         <v>23.024486</v>
       </c>
       <c r="AQ4" s="1">
-        <v>993.161000</v>
+        <v>993.16099999999994</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.577000</v>
+        <v>-102.577</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>82899.218584</v>
+        <v>82899.218584000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.027561</v>
+        <v>23.027560999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.912000</v>
+        <v>-123.91200000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>82910.398407</v>
+        <v>82910.398407000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>23.030666</v>
       </c>
       <c r="BA4" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.513000</v>
+        <v>-142.51300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>82921.440841</v>
+        <v>82921.440841000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.033734</v>
+        <v>23.033733999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1059.340000</v>
+        <v>1059.3399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.921000</v>
+        <v>-226.92099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>82932.513034</v>
+        <v>82932.513034000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.036809</v>
+        <v>23.036809000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1138.940000</v>
+        <v>1138.94</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.077000</v>
+        <v>-362.077</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>82943.590684</v>
+        <v>82943.590683999995</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.039886</v>
+        <v>23.039885999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.132000</v>
+        <v>-570.13199999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>82954.381150</v>
+        <v>82954.381150000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.042884</v>
+        <v>23.042884000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1417.310000</v>
+        <v>1417.31</v>
       </c>
       <c r="BV4" s="1">
-        <v>-791.909000</v>
+        <v>-791.90899999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>82965.593710</v>
+        <v>82965.593710000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.045998</v>
+        <v>23.045998000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1578.340000</v>
+        <v>1578.34</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1022.610000</v>
+        <v>-1022.61</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>82976.672384</v>
+        <v>82976.672384000005</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.049076</v>
+        <v>23.049075999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1982.650000</v>
+        <v>1982.65</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1562.570000</v>
+        <v>-1562.57</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>82804.082932</v>
+        <v>82804.082932000005</v>
       </c>
       <c r="B5" s="1">
         <v>23.001134</v>
       </c>
       <c r="C5" s="1">
-        <v>909.963000</v>
+        <v>909.96299999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.255000</v>
+        <v>-197.255</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>82814.169574</v>
       </c>
       <c r="G5" s="1">
-        <v>23.003936</v>
+        <v>23.003935999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>927.372000</v>
+        <v>927.37199999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.743000</v>
+        <v>-167.74299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>82824.657977</v>
+        <v>82824.657976999995</v>
       </c>
       <c r="L5" s="1">
-        <v>23.006849</v>
+        <v>23.006848999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>949.605000</v>
+        <v>949.60500000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.537000</v>
+        <v>-120.53700000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>82835.543211</v>
+        <v>82835.543210999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.009873</v>
+        <v>23.009872999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>956.567000</v>
+        <v>956.56700000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.059000</v>
+        <v>-105.059</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>82846.079197</v>
+        <v>82846.079196999999</v>
       </c>
       <c r="V5" s="1">
-        <v>23.012800</v>
+        <v>23.012799999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>963.305000</v>
+        <v>963.30499999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-91.248200</v>
+        <v>-91.248199999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>82856.545279</v>
+        <v>82856.545278999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.015707</v>
+        <v>23.015706999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>970.872000</v>
+        <v>970.87199999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-81.308800</v>
+        <v>-81.308800000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>82867.445360</v>
+        <v>82867.445359999998</v>
       </c>
       <c r="AF5" s="1">
         <v>23.018735</v>
       </c>
       <c r="AG5" s="1">
-        <v>975.981000</v>
+        <v>975.98099999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.570300</v>
+        <v>-80.570300000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>82877.915442</v>
+        <v>82877.915441999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.021643</v>
+        <v>23.021643000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>983.997000</v>
+        <v>983.99699999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.933500</v>
+        <v>-87.933499999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>82888.825908</v>
+        <v>82888.825907999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.024674</v>
+        <v>23.024674000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>993.161000</v>
+        <v>993.16099999999994</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>82899.664485</v>
+        <v>82899.664485000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.027685</v>
+        <v>23.027685000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.915000</v>
+        <v>-123.91500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>82910.831448</v>
+        <v>82910.831447999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>23.030787</v>
       </c>
       <c r="BA5" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.538000</v>
+        <v>-142.53800000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>82921.799449</v>
+        <v>82921.799448999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.033833</v>
+        <v>23.033833000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.930000</v>
+        <v>-226.93</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>82932.884057</v>
+        <v>82932.884057000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.036912</v>
+        <v>23.036912000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.065000</v>
+        <v>-362.065</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>82943.986492</v>
+        <v>82943.986491999996</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.039996</v>
+        <v>23.039995999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.106000</v>
+        <v>-570.10599999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>82954.812670</v>
+        <v>82954.812669999999</v>
       </c>
       <c r="BT5" s="1">
         <v>23.043004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1417.230000</v>
+        <v>1417.23</v>
       </c>
       <c r="BV5" s="1">
-        <v>-791.957000</v>
+        <v>-791.95699999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>82966.040111</v>
+        <v>82966.040110999995</v>
       </c>
       <c r="BY5" s="1">
         <v>23.046122</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1022.560000</v>
+        <v>-1022.56</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>82977.188191</v>
+        <v>82977.188190999994</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.049219</v>
+        <v>23.049219000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1981.630000</v>
+        <v>1981.63</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1561.460000</v>
+        <v>-1561.46</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>82804.422729</v>
+        <v>82804.422728999998</v>
       </c>
       <c r="B6" s="1">
-        <v>23.001229</v>
+        <v>23.001228999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>909.941000</v>
+        <v>909.94100000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.201000</v>
+        <v>-197.20099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>82814.857526</v>
+        <v>82814.857526000007</v>
       </c>
       <c r="G6" s="1">
         <v>23.004127</v>
       </c>
       <c r="H6" s="1">
-        <v>927.008000</v>
+        <v>927.00800000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.977000</v>
+        <v>-167.977</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>82825.351384</v>
+        <v>82825.351383999994</v>
       </c>
       <c r="L6" s="1">
-        <v>23.007042</v>
+        <v>23.007041999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>949.652000</v>
+        <v>949.65200000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.680000</v>
+        <v>-120.68</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>82835.893850</v>
+        <v>82835.893849999993</v>
       </c>
       <c r="Q6" s="1">
         <v>23.009971</v>
       </c>
       <c r="R6" s="1">
-        <v>956.593000</v>
+        <v>956.59299999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.081000</v>
+        <v>-105.081</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>82846.426396</v>
+        <v>82846.426395999995</v>
       </c>
       <c r="V6" s="1">
-        <v>23.012896</v>
+        <v>23.012896000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>963.428000</v>
+        <v>963.428</v>
       </c>
       <c r="X6" s="1">
-        <v>-91.198900</v>
+        <v>-91.198899999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>82856.894960</v>
+        <v>82856.894960000005</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.015804</v>
+        <v>23.015803999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>970.889000</v>
+        <v>970.88900000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-81.328600</v>
+        <v>-81.328599999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>82868.117967</v>
+        <v>82868.117966999998</v>
       </c>
       <c r="AF6" s="1">
         <v>23.018922</v>
       </c>
       <c r="AG6" s="1">
-        <v>976.140000</v>
+        <v>976.14</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.434200</v>
+        <v>-80.434200000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>82878.577569</v>
+        <v>82878.577569000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.021827</v>
+        <v>23.021826999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>983.990000</v>
+        <v>983.99</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.948500</v>
+        <v>-87.948499999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>82889.233619</v>
+        <v>82889.233619000006</v>
       </c>
       <c r="AP6" s="1">
         <v>23.024787</v>
       </c>
       <c r="AQ6" s="1">
-        <v>993.145000</v>
+        <v>993.14499999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>82900.030037</v>
+        <v>82900.030037000004</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.027786</v>
+        <v>23.027785999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1004.480000</v>
+        <v>1004.48</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.917000</v>
+        <v>-123.917</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>82911.191150</v>
+        <v>82911.191149999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.030886</v>
+        <v>23.030885999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.518000</v>
+        <v>-142.518</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>82922.162519</v>
+        <v>82922.162519000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.033934</v>
+        <v>23.033933999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1059.380000</v>
+        <v>1059.3800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.943000</v>
+        <v>-226.94300000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>82933.345817</v>
+        <v>82933.345816999994</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.037041</v>
+        <v>23.037040999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.085000</v>
+        <v>-362.08499999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>82944.410074</v>
+        <v>82944.410073999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.040114</v>
+        <v>23.040113999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.099000</v>
+        <v>-570.09900000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>82955.220913</v>
+        <v>82955.220912999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.043117</v>
+        <v>23.043116999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1417.280000</v>
+        <v>1417.28</v>
       </c>
       <c r="BV6" s="1">
-        <v>-791.820000</v>
+        <v>-791.82</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>82966.464685</v>
+        <v>82966.464684999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.046240</v>
+        <v>23.046240000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1578.270000</v>
+        <v>1578.27</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1022.650000</v>
+        <v>-1022.65</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>82977.707006</v>
+        <v>82977.707005999997</v>
       </c>
       <c r="CD6" s="1">
         <v>23.049363</v>
       </c>
       <c r="CE6" s="1">
-        <v>1980.630000</v>
+        <v>1980.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1562.800000</v>
+        <v>-1562.8</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>82805.109187</v>
+        <v>82805.109186999995</v>
       </c>
       <c r="B7" s="1">
-        <v>23.001419</v>
+        <v>23.001418999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>909.982000</v>
+        <v>909.98199999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.208000</v>
+        <v>-197.208</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>82815.202246</v>
+        <v>82815.202246000001</v>
       </c>
       <c r="G7" s="1">
         <v>23.004223</v>
       </c>
       <c r="H7" s="1">
-        <v>926.992000</v>
+        <v>926.99199999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.213000</v>
+        <v>-167.21299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>82825.694617</v>
+        <v>82825.694617000001</v>
       </c>
       <c r="L7" s="1">
         <v>23.007137</v>
       </c>
       <c r="M7" s="1">
-        <v>949.755000</v>
+        <v>949.755</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.631000</v>
+        <v>-120.631</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>82836.241049</v>
+        <v>82836.241049000004</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.010067</v>
+        <v>23.010066999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>956.572000</v>
+        <v>956.572</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.077000</v>
+        <v>-105.077</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>82847.083133</v>
+        <v>82847.083132999993</v>
       </c>
       <c r="V7" s="1">
-        <v>23.013079</v>
+        <v>23.013079000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>963.324000</v>
+        <v>963.32399999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-91.205200</v>
+        <v>-91.205200000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>82857.554637</v>
+        <v>82857.554636999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.015987</v>
+        <v>23.015986999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>970.922000</v>
+        <v>970.92200000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-81.313000</v>
+        <v>-81.313000000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>82868.484975</v>
+        <v>82868.484974999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.019024</v>
+        <v>23.019024000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>975.962000</v>
+        <v>975.96199999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.627500</v>
+        <v>-80.627499999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>82878.961516</v>
+        <v>82878.961515999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.021934</v>
+        <v>23.021934000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>983.981000</v>
+        <v>983.98099999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.940200</v>
+        <v>-87.940200000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>82889.621490</v>
+        <v>82889.621490000005</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.024895</v>
+        <v>23.024895000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>993.155000</v>
+        <v>993.15499999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>82900.395589</v>
+        <v>82900.395589000007</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.027888</v>
+        <v>23.027888000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1004.490000</v>
+        <v>1004.49</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.894000</v>
+        <v>-123.89400000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>82911.549158</v>
+        <v>82911.549157999994</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.030986</v>
+        <v>23.030985999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.525000</v>
+        <v>-142.52500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>82922.595031</v>
+        <v>82922.595031000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.034054</v>
+        <v>23.034054000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.924000</v>
+        <v>-226.92400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>82933.662761</v>
@@ -1946,829 +2362,829 @@
         <v>23.037129</v>
       </c>
       <c r="BK7" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.058000</v>
+        <v>-362.05799999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>82944.805386</v>
+        <v>82944.805386000007</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.040224</v>
+        <v>23.040223999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.120000</v>
+        <v>-570.12</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>82955.649419</v>
+        <v>82955.649418999994</v>
       </c>
       <c r="BT7" s="1">
         <v>23.043236</v>
       </c>
       <c r="BU7" s="1">
-        <v>1417.190000</v>
+        <v>1417.19</v>
       </c>
       <c r="BV7" s="1">
-        <v>-791.799000</v>
+        <v>-791.79899999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>82966.888268</v>
+        <v>82966.888267999995</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.046358</v>
+        <v>23.046358000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1578.240000</v>
+        <v>1578.24</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1022.580000</v>
+        <v>-1022.58</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>82978.226317</v>
+        <v>82978.226316999993</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.049507</v>
+        <v>23.049506999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1980.530000</v>
+        <v>1980.53</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1562.610000</v>
+        <v>-1562.61</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>82805.450898</v>
+        <v>82805.450897999996</v>
       </c>
       <c r="B8" s="1">
         <v>23.001514</v>
       </c>
       <c r="C8" s="1">
-        <v>910.044000</v>
+        <v>910.04399999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.342000</v>
+        <v>-197.34200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>82815.549941</v>
+        <v>82815.549941000005</v>
       </c>
       <c r="G8" s="1">
-        <v>23.004319</v>
+        <v>23.004318999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>926.930000</v>
+        <v>926.93</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.811000</v>
+        <v>-167.81100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>82826.044791</v>
+        <v>82826.044790999993</v>
       </c>
       <c r="L8" s="1">
-        <v>23.007235</v>
+        <v>23.007235000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>949.624000</v>
+        <v>949.62400000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.611000</v>
+        <v>-120.611</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>82836.904201</v>
+        <v>82836.904200999998</v>
       </c>
       <c r="Q8" s="1">
         <v>23.010251</v>
       </c>
       <c r="R8" s="1">
-        <v>956.561000</v>
+        <v>956.56100000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.146000</v>
+        <v>-105.146</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>82847.456127</v>
+        <v>82847.456126999998</v>
       </c>
       <c r="V8" s="1">
         <v>23.013182</v>
       </c>
       <c r="W8" s="1">
-        <v>963.445000</v>
+        <v>963.44500000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-91.235900</v>
+        <v>-91.235900000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>82857.940557</v>
+        <v>82857.940556999994</v>
       </c>
       <c r="AA8" s="1">
         <v>23.016095</v>
       </c>
       <c r="AB8" s="1">
-        <v>970.897000</v>
+        <v>970.89700000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-81.302900</v>
+        <v>-81.302899999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>82868.830190</v>
+        <v>82868.830189999993</v>
       </c>
       <c r="AF8" s="1">
         <v>23.019119</v>
       </c>
       <c r="AG8" s="1">
-        <v>975.972000</v>
+        <v>975.97199999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.589200</v>
+        <v>-80.589200000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>82879.312145</v>
+        <v>82879.312145000004</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.022031</v>
+        <v>23.022030999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>983.992000</v>
+        <v>983.99199999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.954400</v>
+        <v>-87.954400000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>82889.982084</v>
+        <v>82889.982084000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>23.024995</v>
+        <v>23.024995000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>993.170000</v>
+        <v>993.17</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.587000</v>
+        <v>-102.587</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>82900.824628</v>
+        <v>82900.824628000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.028007</v>
+        <v>23.028006999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.898000</v>
+        <v>-123.898</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>82911.977205</v>
+        <v>82911.977205000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.031105</v>
       </c>
       <c r="BA8" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.522000</v>
+        <v>-142.52199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>82922.882742</v>
+        <v>82922.882742000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.034134</v>
+        <v>23.034134000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.914000</v>
+        <v>-226.91399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>82934.039227</v>
+        <v>82934.039227000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.037233</v>
+        <v>23.037233000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.104000</v>
+        <v>-362.10399999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>82945.225498</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.040340</v>
+        <v>23.04034</v>
       </c>
       <c r="BP8" s="1">
-        <v>1270.520000</v>
+        <v>1270.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.141000</v>
+        <v>-570.14099999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>82956.081435</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.043356</v>
+        <v>23.043355999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1417.220000</v>
+        <v>1417.22</v>
       </c>
       <c r="BV8" s="1">
-        <v>-791.672000</v>
+        <v>-791.67200000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>82967.662523</v>
+        <v>82967.662523000006</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.046573</v>
+        <v>23.046572999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1022.580000</v>
+        <v>-1022.58</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>82978.774893</v>
+        <v>82978.774892999994</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.049660</v>
+        <v>23.049659999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1981.350000</v>
+        <v>1981.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1561.560000</v>
+        <v>-1561.56</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>82805.789666</v>
+        <v>82805.789665999997</v>
       </c>
       <c r="B9" s="1">
-        <v>23.001608</v>
+        <v>23.001608000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>910.059000</v>
+        <v>910.05899999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.290000</v>
+        <v>-197.29</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>82816.207636</v>
+        <v>82816.207636000006</v>
       </c>
       <c r="G9" s="1">
-        <v>23.004502</v>
+        <v>23.004501999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>927.085000</v>
+        <v>927.08500000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.517000</v>
+        <v>-167.517</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>82826.705462</v>
+        <v>82826.705461999998</v>
       </c>
       <c r="L9" s="1">
-        <v>23.007418</v>
+        <v>23.007418000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>949.780000</v>
+        <v>949.78</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.541000</v>
+        <v>-120.541</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>82837.286617</v>
+        <v>82837.286617000005</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.010357</v>
+        <v>23.010356999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>956.531000</v>
+        <v>956.53099999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.128000</v>
+        <v>-105.128</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>82847.800346</v>
+        <v>82847.800346000004</v>
       </c>
       <c r="V9" s="1">
         <v>23.013278</v>
       </c>
       <c r="W9" s="1">
-        <v>963.272000</v>
+        <v>963.27200000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-91.189100</v>
+        <v>-91.189099999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>82858.291234</v>
+        <v>82858.291234000004</v>
       </c>
       <c r="AA9" s="1">
         <v>23.016192</v>
       </c>
       <c r="AB9" s="1">
-        <v>970.874000</v>
+        <v>970.87400000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-81.352800</v>
+        <v>-81.352800000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>82869.174415</v>
+        <v>82869.174415000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.019215</v>
+        <v>23.019214999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>976.101000</v>
+        <v>976.101</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.718400</v>
+        <v>-80.718400000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>82879.659382</v>
+        <v>82879.659381999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.022128</v>
+        <v>23.022127999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>983.987000</v>
+        <v>983.98699999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.951000</v>
+        <v>-87.950999999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>82890.404178</v>
+        <v>82890.404177999997</v>
       </c>
       <c r="AP9" s="1">
         <v>23.025112</v>
       </c>
       <c r="AQ9" s="1">
-        <v>993.170000</v>
+        <v>993.17</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.584000</v>
+        <v>-102.584</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>82901.124215</v>
+        <v>82901.124215000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.028090</v>
+        <v>23.028089999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.901000</v>
+        <v>-123.901</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>82912.266838</v>
+        <v>82912.266837999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.031185</v>
+        <v>23.031185000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.519000</v>
+        <v>-142.51900000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>82923.243798</v>
+        <v>82923.243797999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>23.034234</v>
+        <v>23.034234000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.912000</v>
+        <v>-226.91200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>82934.413703</v>
+        <v>82934.413702999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>23.037337</v>
+        <v>23.037337000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1138.950000</v>
+        <v>1138.95</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.075000</v>
+        <v>-362.07499999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>82945.621348</v>
+        <v>82945.621348000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.040450</v>
+        <v>23.04045</v>
       </c>
       <c r="BP9" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.143000</v>
+        <v>-570.14300000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>82956.920170</v>
+        <v>82956.920169999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.043589</v>
+        <v>23.043589000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1417.250000</v>
+        <v>1417.25</v>
       </c>
       <c r="BV9" s="1">
-        <v>-791.671000</v>
+        <v>-791.67100000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>82967.772635</v>
+        <v>82967.772635000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.046604</v>
+        <v>23.046603999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1578.510000</v>
+        <v>1578.51</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1022.480000</v>
+        <v>-1022.48</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>82979.304620</v>
+        <v>82979.304619999995</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.049807</v>
+        <v>23.049807000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1980.970000</v>
+        <v>1980.97</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1563.120000</v>
+        <v>-1563.12</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>82806.452353</v>
+        <v>82806.452353000001</v>
       </c>
       <c r="B10" s="1">
-        <v>23.001792</v>
+        <v>23.001791999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>909.996000</v>
+        <v>909.99599999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.168000</v>
+        <v>-197.16800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>82816.583636</v>
+        <v>82816.583635999996</v>
       </c>
       <c r="G10" s="1">
         <v>23.004607</v>
       </c>
       <c r="H10" s="1">
-        <v>926.974000</v>
+        <v>926.97400000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.743000</v>
+        <v>-167.74299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>82827.084901</v>
+        <v>82827.084900999995</v>
       </c>
       <c r="L10" s="1">
         <v>23.007524</v>
       </c>
       <c r="M10" s="1">
-        <v>949.807000</v>
+        <v>949.80700000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.589000</v>
+        <v>-120.589</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>82837.632825</v>
+        <v>82837.632824999993</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.010454</v>
+        <v>23.010453999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>956.526000</v>
+        <v>956.52599999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.089000</v>
+        <v>-105.089</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>82848.142555</v>
+        <v>82848.142554999999</v>
       </c>
       <c r="V10" s="1">
-        <v>23.013373</v>
+        <v>23.013373000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>963.366000</v>
+        <v>963.36599999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-91.306100</v>
+        <v>-91.306100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>82858.639884</v>
+        <v>82858.639884000004</v>
       </c>
       <c r="AA10" s="1">
         <v>23.016289</v>
       </c>
       <c r="AB10" s="1">
-        <v>970.840000</v>
+        <v>970.84</v>
       </c>
       <c r="AC10" s="1">
-        <v>-81.333600</v>
+        <v>-81.333600000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>82869.601469</v>
+        <v>82869.601469000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.019334</v>
+        <v>23.019334000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>975.957000</v>
+        <v>975.95699999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.574300</v>
+        <v>-80.574299999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>82880.080945</v>
+        <v>82880.080944999994</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.022245</v>
+        <v>23.022245000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>983.993000</v>
+        <v>983.99300000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.952500</v>
+        <v>-87.952500000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>82890.701777</v>
+        <v>82890.701776999995</v>
       </c>
       <c r="AP10" s="1">
         <v>23.025195</v>
       </c>
       <c r="AQ10" s="1">
-        <v>993.145000</v>
+        <v>993.14499999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>82901.487283</v>
+        <v>82901.487282999995</v>
       </c>
       <c r="AU10" s="1">
         <v>23.028191</v>
       </c>
       <c r="AV10" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>82912.625942</v>
+        <v>82912.625941999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>23.031285</v>
       </c>
       <c r="BA10" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.521000</v>
+        <v>-142.52099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>82923.606674</v>
+        <v>82923.606673999995</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.034335</v>
+        <v>23.034334999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.912000</v>
+        <v>-226.91200000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>82935.164160</v>
+        <v>82935.16416</v>
       </c>
       <c r="BJ10" s="1">
-        <v>23.037546</v>
+        <v>23.037545999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.072000</v>
+        <v>-362.072</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>82946.048856</v>
+        <v>82946.048855999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.040569</v>
+        <v>23.040569000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.091000</v>
+        <v>-570.09100000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>82957.351689</v>
+        <v>82957.351689000003</v>
       </c>
       <c r="BT10" s="1">
         <v>23.043709</v>
       </c>
       <c r="BU10" s="1">
-        <v>1417.140000</v>
+        <v>1417.14</v>
       </c>
       <c r="BV10" s="1">
-        <v>-791.617000</v>
+        <v>-791.61699999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>82968.207132</v>
+        <v>82968.207131999996</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.046724</v>
+        <v>23.046724000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1578.350000</v>
+        <v>1578.35</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1022.630000</v>
+        <v>-1022.63</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>82979.824924</v>
@@ -2777,530 +3193,530 @@
         <v>23.049951</v>
       </c>
       <c r="CE10" s="1">
-        <v>1980.430000</v>
+        <v>1980.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1562.460000</v>
+        <v>-1562.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>82806.817097</v>
+        <v>82806.817097000006</v>
       </c>
       <c r="B11" s="1">
         <v>23.001894</v>
       </c>
       <c r="C11" s="1">
-        <v>910.065000</v>
+        <v>910.06500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.371000</v>
+        <v>-197.37100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>82816.928334</v>
+        <v>82816.928333999997</v>
       </c>
       <c r="G11" s="1">
-        <v>23.004702</v>
+        <v>23.004702000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>927.182000</v>
+        <v>927.18200000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.821000</v>
+        <v>-167.821</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>82827.429126</v>
+        <v>82827.429126000003</v>
       </c>
       <c r="L11" s="1">
-        <v>23.007619</v>
+        <v>23.007618999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>949.772000</v>
+        <v>949.77200000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.400000</v>
+        <v>-120.4</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>82837.984983</v>
+        <v>82837.984983000002</v>
       </c>
       <c r="Q11" s="1">
         <v>23.010551</v>
       </c>
       <c r="R11" s="1">
-        <v>956.561000</v>
+        <v>956.56100000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.081000</v>
+        <v>-105.081</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>82848.566664</v>
+        <v>82848.566663999998</v>
       </c>
       <c r="V11" s="1">
-        <v>23.013491</v>
+        <v>23.013490999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>963.292000</v>
+        <v>963.29200000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-91.164700</v>
+        <v>-91.164699999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>82859.067436</v>
+        <v>82859.067435999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.016408</v>
+        <v>23.016407999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>970.927000</v>
+        <v>970.92700000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-81.476800</v>
+        <v>-81.476799999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>82869.871789</v>
+        <v>82869.871788999997</v>
       </c>
       <c r="AF11" s="1">
         <v>23.019409</v>
       </c>
       <c r="AG11" s="1">
-        <v>976.004000</v>
+        <v>976.00400000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.698000</v>
+        <v>-80.697999999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>82880.383008</v>
+        <v>82880.383008000004</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.022329</v>
+        <v>23.022328999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>983.985000</v>
+        <v>983.98500000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.949500</v>
+        <v>-87.9495</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>82891.062370</v>
+        <v>82891.06237</v>
       </c>
       <c r="AP11" s="1">
         <v>23.025295</v>
       </c>
       <c r="AQ11" s="1">
-        <v>993.160000</v>
+        <v>993.16</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.590000</v>
+        <v>-102.59</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>82901.851843</v>
+        <v>82901.851842999997</v>
       </c>
       <c r="AU11" s="1">
         <v>23.028292</v>
       </c>
       <c r="AV11" s="1">
-        <v>1004.520000</v>
+        <v>1004.52</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.900000</v>
+        <v>-123.9</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>82912.984581</v>
+        <v>82912.984580999997</v>
       </c>
       <c r="AZ11" s="1">
         <v>23.031385</v>
       </c>
       <c r="BA11" s="1">
-        <v>1014.080000</v>
+        <v>1014.08</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.549000</v>
+        <v>-142.54900000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>82924.329045</v>
+        <v>82924.329045000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.034536</v>
+        <v>23.034535999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.920000</v>
+        <v>-226.92</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>82935.539130</v>
+        <v>82935.539130000005</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.037650</v>
+        <v>23.037649999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.091000</v>
+        <v>-362.09100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>82946.441688</v>
+        <v>82946.441688000006</v>
       </c>
       <c r="BO11" s="1">
         <v>23.040678</v>
       </c>
       <c r="BP11" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.168000</v>
+        <v>-570.16800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>82957.783209</v>
+        <v>82957.783209000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.043829</v>
+        <v>23.043828999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1417.270000</v>
+        <v>1417.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-791.662000</v>
+        <v>-791.66200000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>82968.943690</v>
+        <v>82968.94369</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.046929</v>
+        <v>23.046928999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1578.280000</v>
+        <v>1578.28</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>82980.692426</v>
+        <v>82980.692425999994</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.050192</v>
+        <v>23.050191999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1981.630000</v>
+        <v>1981.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1561.620000</v>
+        <v>-1561.62</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>82807.161104</v>
+        <v>82807.161103999999</v>
       </c>
       <c r="B12" s="1">
-        <v>23.001989</v>
+        <v>23.001988999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>910.125000</v>
+        <v>910.125</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.337000</v>
+        <v>-197.33699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>82817.272066</v>
+        <v>82817.272066000005</v>
       </c>
       <c r="G12" s="1">
-        <v>23.004798</v>
+        <v>23.004798000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>926.888000</v>
+        <v>926.88800000000003</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.307000</v>
+        <v>-167.30699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>82827.771897</v>
+        <v>82827.771896999999</v>
       </c>
       <c r="L12" s="1">
         <v>23.007714</v>
       </c>
       <c r="M12" s="1">
-        <v>949.713000</v>
+        <v>949.71299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.440000</v>
+        <v>-120.44</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>82838.403111</v>
+        <v>82838.403111000007</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.010668</v>
+        <v>23.010667999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>956.581000</v>
+        <v>956.58100000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.101000</v>
+        <v>-105.101</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>82848.837945</v>
+        <v>82848.837945000007</v>
       </c>
       <c r="V12" s="1">
-        <v>23.013566</v>
+        <v>23.013566000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>963.234000</v>
+        <v>963.23400000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-91.267600</v>
+        <v>-91.267600000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>82859.346721</v>
+        <v>82859.346720999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.016485</v>
+        <v>23.016484999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>970.883000</v>
+        <v>970.88300000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-81.322300</v>
+        <v>-81.322299999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>82870.215549</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.019504</v>
+        <v>23.019504000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>975.946000</v>
+        <v>975.94600000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.656100</v>
+        <v>-80.656099999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>82880.722272</v>
+        <v>82880.722271999999</v>
       </c>
       <c r="AK12" s="1">
         <v>23.022423</v>
       </c>
       <c r="AL12" s="1">
-        <v>983.984000</v>
+        <v>983.98400000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.960100</v>
+        <v>-87.960099999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>82891.424449</v>
+        <v>82891.424448999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.025396</v>
+        <v>23.025396000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>993.183000</v>
+        <v>993.18299999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.584000</v>
+        <v>-102.584</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>82902.572530</v>
+        <v>82902.572530000005</v>
       </c>
       <c r="AU12" s="1">
         <v>23.028492</v>
       </c>
       <c r="AV12" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.892000</v>
+        <v>-123.892</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>82913.704739</v>
+        <v>82913.704738999993</v>
       </c>
       <c r="AZ12" s="1">
         <v>23.031585</v>
       </c>
       <c r="BA12" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.543000</v>
+        <v>-142.54300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>82924.691681</v>
+        <v>82924.691680999997</v>
       </c>
       <c r="BE12" s="1">
         <v>23.034637</v>
       </c>
       <c r="BF12" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.938000</v>
+        <v>-226.93799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>82935.914629</v>
+        <v>82935.914629000006</v>
       </c>
       <c r="BJ12" s="1">
         <v>23.037754</v>
       </c>
       <c r="BK12" s="1">
-        <v>1138.960000</v>
+        <v>1138.96</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.102000</v>
+        <v>-362.10199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>82946.859816</v>
+        <v>82946.859815999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>23.040794</v>
+        <v>23.040794000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.136000</v>
+        <v>-570.13599999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>82958.503561</v>
+        <v>82958.503561000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.044029</v>
+        <v>23.044028999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1417.240000</v>
+        <v>1417.24</v>
       </c>
       <c r="BV12" s="1">
-        <v>-791.571000</v>
+        <v>-791.57100000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>82969.079626</v>
+        <v>82969.079626000006</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.046967</v>
+        <v>23.046966999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1578.230000</v>
+        <v>1578.23</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1022.770000</v>
+        <v>-1022.77</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>82980.905210</v>
+        <v>82980.905209999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.050251</v>
+        <v>23.050250999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1980.900000</v>
+        <v>1980.9</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1562.950000</v>
+        <v>-1562.95</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>82807.501397</v>
       </c>
@@ -3308,300 +3724,300 @@
         <v>23.002084</v>
       </c>
       <c r="C13" s="1">
-        <v>910.040000</v>
+        <v>910.04</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.185000</v>
+        <v>-197.185</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>82817.692689</v>
+        <v>82817.692689000003</v>
       </c>
       <c r="G13" s="1">
         <v>23.004915</v>
       </c>
       <c r="H13" s="1">
-        <v>927.466000</v>
+        <v>927.46600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.267000</v>
+        <v>-167.267</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>82828.205401</v>
+        <v>82828.205400999999</v>
       </c>
       <c r="L13" s="1">
         <v>23.007835</v>
       </c>
       <c r="M13" s="1">
-        <v>949.758000</v>
+        <v>949.75800000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.603000</v>
+        <v>-120.60299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>82838.678886</v>
+        <v>82838.678885999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.010744</v>
+        <v>23.010743999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>956.555000</v>
+        <v>956.55499999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.113000</v>
+        <v>-105.113</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>82849.180184</v>
+        <v>82849.180183999997</v>
       </c>
       <c r="V13" s="1">
-        <v>23.013661</v>
+        <v>23.013660999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>963.348000</v>
+        <v>963.34799999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-91.188300</v>
+        <v>-91.188299999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>82859.695371</v>
+        <v>82859.695370999994</v>
       </c>
       <c r="AA13" s="1">
         <v>23.016582</v>
       </c>
       <c r="AB13" s="1">
-        <v>970.863000</v>
+        <v>970.86300000000006</v>
       </c>
       <c r="AC13" s="1">
-        <v>-81.384700</v>
+        <v>-81.384699999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>82870.556764</v>
+        <v>82870.556763999994</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.019599</v>
+        <v>23.019598999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>976.068000</v>
+        <v>976.06799999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.522000</v>
+        <v>-80.522000000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>82881.414730</v>
+        <v>82881.414730000004</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.022615</v>
+        <v>23.022614999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>983.980000</v>
+        <v>983.98</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.952300</v>
+        <v>-87.952299999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>82892.143680</v>
+        <v>82892.143679999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.025595</v>
+        <v>23.025594999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>993.168000</v>
+        <v>993.16800000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>82902.973297</v>
+        <v>82902.973297000004</v>
       </c>
       <c r="AU13" s="1">
-        <v>23.028604</v>
+        <v>23.028604000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.896000</v>
+        <v>-123.896</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>82914.061363</v>
+        <v>82914.061363000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.031684</v>
+        <v>23.031683999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1014.110000</v>
+        <v>1014.11</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.510000</v>
+        <v>-142.51</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>82925.050725</v>
+        <v>82925.050724999994</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.034736</v>
+        <v>23.034735999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.925000</v>
+        <v>-226.92500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>82936.600596</v>
+        <v>82936.600596000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.037945</v>
+        <v>23.037945000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.076000</v>
+        <v>-362.07600000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>82947.569127</v>
+        <v>82947.569126999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.040991</v>
+        <v>23.040991000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.143000</v>
+        <v>-570.14300000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>82958.625415</v>
+        <v>82958.625415000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.044063</v>
+        <v>23.044063000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1417.370000</v>
+        <v>1417.37</v>
       </c>
       <c r="BV13" s="1">
-        <v>-791.451000</v>
+        <v>-791.45100000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>82969.505660</v>
+        <v>82969.505659999995</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.047085</v>
+        <v>23.047084999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1022.740000</v>
+        <v>-1022.74</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>82981.424026</v>
+        <v>82981.424025999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>23.050396</v>
+        <v>23.050395999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1982.390000</v>
+        <v>1982.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1563.400000</v>
+        <v>-1563.4</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>82807.924975</v>
+        <v>82807.924975000002</v>
       </c>
       <c r="B14" s="1">
-        <v>23.002201</v>
+        <v>23.002200999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>909.940000</v>
+        <v>909.94</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.356000</v>
+        <v>-197.35599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>82817.960001</v>
+        <v>82817.960000999999</v>
       </c>
       <c r="G14" s="1">
-        <v>23.004989</v>
+        <v>23.004988999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>926.998000</v>
+        <v>926.99800000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.764000</v>
+        <v>-167.76400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>82828.529289</v>
+        <v>82828.529288999998</v>
       </c>
       <c r="L14" s="1">
         <v>23.007925</v>
       </c>
       <c r="M14" s="1">
-        <v>949.813000</v>
+        <v>949.81299999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.526000</v>
+        <v>-120.526</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>82839.031057</v>
@@ -3610,285 +4026,285 @@
         <v>23.010842</v>
       </c>
       <c r="R14" s="1">
-        <v>956.556000</v>
+        <v>956.55600000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.159000</v>
+        <v>-105.15900000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>82849.525399</v>
+        <v>82849.525399000006</v>
       </c>
       <c r="V14" s="1">
-        <v>23.013757</v>
+        <v>23.013756999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>963.297000</v>
+        <v>963.29700000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-91.175200</v>
+        <v>-91.175200000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>82860.044059</v>
+        <v>82860.044059000007</v>
       </c>
       <c r="AA14" s="1">
         <v>23.016679</v>
       </c>
       <c r="AB14" s="1">
-        <v>970.901000</v>
+        <v>970.90099999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-81.323300</v>
+        <v>-81.323300000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>82871.242731</v>
+        <v>82871.242731000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.019790</v>
+        <v>23.01979</v>
       </c>
       <c r="AG14" s="1">
-        <v>976.017000</v>
+        <v>976.01700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.594300</v>
+        <v>-80.594300000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>82881.766845</v>
+        <v>82881.766845000006</v>
       </c>
       <c r="AK14" s="1">
         <v>23.022713</v>
       </c>
       <c r="AL14" s="1">
-        <v>983.993000</v>
+        <v>983.99300000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.940600</v>
+        <v>-87.940600000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>82892.502255</v>
+        <v>82892.502254999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.025695</v>
+        <v>23.025694999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>993.173000</v>
+        <v>993.173</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.589000</v>
+        <v>-102.589</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>82903.339345</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.028705</v>
+        <v>23.028704999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>82914.419508</v>
+        <v>82914.419508000006</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.031783</v>
+        <v>23.031783000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.510000</v>
+        <v>-142.51</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>82925.721811</v>
+        <v>82925.721810999996</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.034923</v>
+        <v>23.034922999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1059.350000</v>
+        <v>1059.3499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.917000</v>
+        <v>-226.917</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>82937.039524</v>
+        <v>82937.039524000007</v>
       </c>
       <c r="BJ14" s="1">
-        <v>23.038067</v>
+        <v>23.038067000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.054000</v>
+        <v>-362.05399999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>82947.694582</v>
+        <v>82947.694581999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.041026</v>
+        <v>23.041025999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.148000</v>
+        <v>-570.14800000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>82959.062887</v>
+        <v>82959.062886999993</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.044184</v>
+        <v>23.044184000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1417.340000</v>
+        <v>1417.34</v>
       </c>
       <c r="BV14" s="1">
-        <v>-791.477000</v>
+        <v>-791.47699999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>82969.921305</v>
+        <v>82969.921304999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.047200</v>
+        <v>23.0472</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1578.450000</v>
+        <v>1578.45</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1022.580000</v>
+        <v>-1022.58</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>82981.941354</v>
+        <v>82981.941353999995</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.050539</v>
+        <v>23.050539000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1982.480000</v>
+        <v>1982.48</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1561.790000</v>
+        <v>-1561.79</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>82808.201743</v>
+        <v>82808.201742999998</v>
       </c>
       <c r="B15" s="1">
         <v>23.002278</v>
       </c>
       <c r="C15" s="1">
-        <v>909.973000</v>
+        <v>909.97299999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.440000</v>
+        <v>-197.44</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>82818.305217</v>
+        <v>82818.305217000001</v>
       </c>
       <c r="G15" s="1">
-        <v>23.005085</v>
+        <v>23.005085000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>927.002000</v>
+        <v>927.00199999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.342000</v>
+        <v>-167.34200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>82828.850659</v>
+        <v>82828.850659000003</v>
       </c>
       <c r="L15" s="1">
-        <v>23.008014</v>
+        <v>23.008013999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>949.848000</v>
+        <v>949.84799999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.468000</v>
+        <v>-120.468</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>82839.377285</v>
+        <v>82839.377284999995</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.010938</v>
+        <v>23.010937999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>956.512000</v>
+        <v>956.51199999999994</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.108000</v>
+        <v>-105.108</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>82850.210376</v>
+        <v>82850.210376000003</v>
       </c>
       <c r="V15" s="1">
-        <v>23.013947</v>
+        <v>23.013947000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>963.304000</v>
+        <v>963.30399999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-91.177500</v>
+        <v>-91.177499999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>82860.741962</v>
@@ -3897,482 +4313,482 @@
         <v>23.016873</v>
       </c>
       <c r="AB15" s="1">
-        <v>970.769000</v>
+        <v>970.76900000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-81.258900</v>
+        <v>-81.258899999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>82871.587487</v>
+        <v>82871.587486999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.019885</v>
+        <v>23.019884999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>975.982000</v>
+        <v>975.98199999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.556700</v>
+        <v>-80.556700000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>82882.116029</v>
+        <v>82882.116028999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.022810</v>
+        <v>23.02281</v>
       </c>
       <c r="AL15" s="1">
-        <v>983.993000</v>
+        <v>983.99300000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.962700</v>
+        <v>-87.962699999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>82892.863343</v>
+        <v>82892.863343000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.025795</v>
+        <v>23.025794999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>993.172000</v>
+        <v>993.17200000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.579000</v>
+        <v>-102.57899999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>82904.012417</v>
+        <v>82904.012417000005</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.028892</v>
+        <v>23.028891999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1004.490000</v>
+        <v>1004.49</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.885000</v>
+        <v>-123.88500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>82915.163015</v>
+        <v>82915.163014999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.031990</v>
+        <v>23.03199</v>
       </c>
       <c r="BA15" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.510000</v>
+        <v>-142.51</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>82926.163746</v>
+        <v>82926.163746000006</v>
       </c>
       <c r="BE15" s="1">
         <v>23.035045</v>
       </c>
       <c r="BF15" s="1">
-        <v>1059.330000</v>
+        <v>1059.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.945000</v>
+        <v>-226.94499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>82937.413539</v>
+        <v>82937.413539000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.038170</v>
+        <v>23.038170000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.102000</v>
+        <v>-362.10199999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>82948.105269</v>
+        <v>82948.105269000007</v>
       </c>
       <c r="BO15" s="1">
-        <v>23.041140</v>
+        <v>23.041139999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.137000</v>
+        <v>-570.13699999999994</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>82959.490438</v>
+        <v>82959.490437999993</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.044303</v>
+        <v>23.044302999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1417.410000</v>
+        <v>1417.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-791.471000</v>
+        <v>-791.471</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>82970.368200</v>
+        <v>82970.368199999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.047325</v>
+        <v>23.047325000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1578.360000</v>
+        <v>1578.36</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1022.480000</v>
+        <v>-1022.48</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>82982.459704</v>
+        <v>82982.459703999994</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.050683</v>
+        <v>23.050682999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1982.900000</v>
+        <v>1982.9</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1562.010000</v>
+        <v>-1562.01</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>82808.545469</v>
+        <v>82808.545469000004</v>
       </c>
       <c r="B16" s="1">
         <v>23.002374</v>
       </c>
       <c r="C16" s="1">
-        <v>910.063000</v>
+        <v>910.06299999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.159000</v>
+        <v>-197.15899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>82818.653904</v>
+        <v>82818.653904000006</v>
       </c>
       <c r="G16" s="1">
-        <v>23.005182</v>
+        <v>23.005182000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>927.163000</v>
+        <v>927.16300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.425000</v>
+        <v>-167.42500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>82829.538610</v>
+        <v>82829.538610000003</v>
       </c>
       <c r="L16" s="1">
         <v>23.008205</v>
       </c>
       <c r="M16" s="1">
-        <v>949.541000</v>
+        <v>949.54100000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.515000</v>
+        <v>-120.515</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>82840.076116</v>
+        <v>82840.076115999997</v>
       </c>
       <c r="Q16" s="1">
         <v>23.011132</v>
       </c>
       <c r="R16" s="1">
-        <v>956.548000</v>
+        <v>956.548</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.110000</v>
+        <v>-105.11</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>82850.553606</v>
+        <v>82850.553606000001</v>
       </c>
       <c r="V16" s="1">
-        <v>23.014043</v>
+        <v>23.014043000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>963.255000</v>
+        <v>963.255</v>
       </c>
       <c r="X16" s="1">
-        <v>-91.285400</v>
+        <v>-91.285399999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>82861.091609</v>
+        <v>82861.091608999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.016970</v>
+        <v>23.016970000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>970.762000</v>
+        <v>970.76199999999994</v>
       </c>
       <c r="AC16" s="1">
-        <v>-81.352500</v>
+        <v>-81.352500000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>82871.930684</v>
+        <v>82871.930684000006</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.019981</v>
+        <v>23.019981000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>975.979000</v>
+        <v>975.97900000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.596000</v>
+        <v>-80.596000000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>82882.779214</v>
+        <v>82882.779213999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.022994</v>
+        <v>23.022994000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>984.015000</v>
+        <v>984.01499999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.957500</v>
+        <v>-87.957499999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>82893.535950</v>
+        <v>82893.535950000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>23.025982</v>
+        <v>23.025981999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>993.181000</v>
+        <v>993.18100000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>82904.462287</v>
+        <v>82904.462287000002</v>
       </c>
       <c r="AU16" s="1">
         <v>23.029017</v>
       </c>
       <c r="AV16" s="1">
-        <v>1004.490000</v>
+        <v>1004.49</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.922000</v>
+        <v>-123.922</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>82915.520097</v>
+        <v>82915.520097000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.032089</v>
+        <v>23.032088999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1014.070000</v>
+        <v>1014.07</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.519000</v>
+        <v>-142.51900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>82926.522978</v>
+        <v>82926.522977999994</v>
       </c>
       <c r="BE16" s="1">
         <v>23.035145</v>
       </c>
       <c r="BF16" s="1">
-        <v>1059.350000</v>
+        <v>1059.3499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.914000</v>
+        <v>-226.91399999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>82937.792452</v>
+        <v>82937.792451999994</v>
       </c>
       <c r="BJ16" s="1">
         <v>23.038276</v>
       </c>
       <c r="BK16" s="1">
-        <v>1138.960000</v>
+        <v>1138.96</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.086000</v>
+        <v>-362.08600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>82948.501573</v>
+        <v>82948.501573000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.041250</v>
+        <v>23.041250000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.155000</v>
+        <v>-570.15499999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>82959.912565</v>
+        <v>82959.912565000006</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.044420</v>
+        <v>23.044419999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1417.480000</v>
+        <v>1417.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-791.463000</v>
+        <v>-791.46299999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>82970.790333</v>
+        <v>82970.790332999997</v>
       </c>
       <c r="BY16" s="1">
         <v>23.047442</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1578.230000</v>
+        <v>1578.23</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1022.550000</v>
+        <v>-1022.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>82983.021144</v>
+        <v>82983.021143999998</v>
       </c>
       <c r="CD16" s="1">
         <v>23.050839</v>
       </c>
       <c r="CE16" s="1">
-        <v>1982.490000</v>
+        <v>1982.49</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1563.120000</v>
+        <v>-1563.12</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>82808.884205</v>
+        <v>82808.884204999995</v>
       </c>
       <c r="B17" s="1">
         <v>23.002468</v>
       </c>
       <c r="C17" s="1">
-        <v>910.034000</v>
+        <v>910.03399999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.087000</v>
+        <v>-197.08699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>82819.347311</v>
+        <v>82819.347311000005</v>
       </c>
       <c r="G17" s="1">
         <v>23.005374</v>
       </c>
       <c r="H17" s="1">
-        <v>927.284000</v>
+        <v>927.28399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.429000</v>
+        <v>-167.429</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>82829.887298</v>
+        <v>82829.887298000001</v>
       </c>
       <c r="L17" s="1">
         <v>23.008302</v>
       </c>
       <c r="M17" s="1">
-        <v>949.791000</v>
+        <v>949.79100000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.535000</v>
+        <v>-120.535</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>82840.423316</v>
@@ -4381,255 +4797,255 @@
         <v>23.011229</v>
       </c>
       <c r="R17" s="1">
-        <v>956.556000</v>
+        <v>956.55600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.088000</v>
+        <v>-105.08799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>82850.898824</v>
+        <v>82850.898824000004</v>
       </c>
       <c r="V17" s="1">
         <v>23.014139</v>
       </c>
       <c r="W17" s="1">
-        <v>963.334000</v>
+        <v>963.33399999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-91.262500</v>
+        <v>-91.262500000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>82861.439800</v>
+        <v>82861.439799999993</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.017067</v>
+        <v>23.017067000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>970.871000</v>
+        <v>970.87099999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-81.334600</v>
+        <v>-81.334599999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>82872.585897</v>
+        <v>82872.585896999997</v>
       </c>
       <c r="AF17" s="1">
         <v>23.020163</v>
       </c>
       <c r="AG17" s="1">
-        <v>976.027000</v>
+        <v>976.02700000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.560100</v>
+        <v>-80.560100000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>82883.162587</v>
+        <v>82883.162586999999</v>
       </c>
       <c r="AK17" s="1">
         <v>23.023101</v>
       </c>
       <c r="AL17" s="1">
-        <v>984.006000</v>
+        <v>984.00599999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.940000</v>
+        <v>-87.94</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>82893.975373</v>
+        <v>82893.975372999994</v>
       </c>
       <c r="AP17" s="1">
         <v>23.026104</v>
       </c>
       <c r="AQ17" s="1">
-        <v>993.157000</v>
+        <v>993.15700000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.590000</v>
+        <v>-102.59</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>82904.829360</v>
+        <v>82904.829360000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.029119</v>
+        <v>23.029119000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.913000</v>
+        <v>-123.913</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>82915.901520</v>
+        <v>82915.901519999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.032195</v>
+        <v>23.032195000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.516000</v>
+        <v>-142.51599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>82926.881953</v>
+        <v>82926.881953000004</v>
       </c>
       <c r="BE17" s="1">
         <v>23.035245</v>
       </c>
       <c r="BF17" s="1">
-        <v>1059.350000</v>
+        <v>1059.3499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.916000</v>
+        <v>-226.916</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>82938.219506</v>
+        <v>82938.219505999994</v>
       </c>
       <c r="BJ17" s="1">
         <v>23.038394</v>
       </c>
       <c r="BK17" s="1">
-        <v>1138.960000</v>
+        <v>1138.96</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.079000</v>
+        <v>-362.07900000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>82948.936564</v>
+        <v>82948.936564000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.041371</v>
+        <v>23.041371000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1270.520000</v>
+        <v>1270.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.157000</v>
+        <v>-570.15700000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>82960.331653</v>
+        <v>82960.331653000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.044537</v>
+        <v>23.044536999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1417.490000</v>
+        <v>1417.49</v>
       </c>
       <c r="BV17" s="1">
-        <v>-791.450000</v>
+        <v>-791.45</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>82971.211399</v>
+        <v>82971.211399000007</v>
       </c>
       <c r="BY17" s="1">
         <v>23.047559</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1578.320000</v>
+        <v>1578.32</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1022.640000</v>
+        <v>-1022.64</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>82983.544939</v>
+        <v>82983.544938999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>23.050985</v>
+        <v>23.050985000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1982.230000</v>
+        <v>1982.23</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1561.590000</v>
+        <v>-1561.59</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>82809.568189</v>
+        <v>82809.568188999998</v>
       </c>
       <c r="B18" s="1">
         <v>23.002658</v>
       </c>
       <c r="C18" s="1">
-        <v>909.834000</v>
+        <v>909.83399999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.257000</v>
+        <v>-197.25700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>82819.691039</v>
+        <v>82819.691038999998</v>
       </c>
       <c r="G18" s="1">
-        <v>23.005470</v>
+        <v>23.005469999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>926.860000</v>
+        <v>926.86</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.397000</v>
+        <v>-167.39699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>82830.234497</v>
+        <v>82830.234496999998</v>
       </c>
       <c r="L18" s="1">
         <v>23.008398</v>
       </c>
       <c r="M18" s="1">
-        <v>949.763000</v>
+        <v>949.76300000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.595000</v>
+        <v>-120.595</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>82840.773491</v>
@@ -4638,330 +5054,330 @@
         <v>23.011326</v>
       </c>
       <c r="R18" s="1">
-        <v>956.577000</v>
+        <v>956.577</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.132000</v>
+        <v>-105.13200000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>82851.558999</v>
+        <v>82851.558999000001</v>
       </c>
       <c r="V18" s="1">
         <v>23.014322</v>
       </c>
       <c r="W18" s="1">
-        <v>963.387000</v>
+        <v>963.38699999999994</v>
       </c>
       <c r="X18" s="1">
-        <v>-91.272500</v>
+        <v>-91.272499999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>82862.112087</v>
+        <v>82862.112087000001</v>
       </c>
       <c r="AA18" s="1">
         <v>23.017253</v>
       </c>
       <c r="AB18" s="1">
-        <v>970.915000</v>
+        <v>970.91499999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-81.287300</v>
+        <v>-81.287300000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>82872.960377</v>
+        <v>82872.960376999996</v>
       </c>
       <c r="AF18" s="1">
         <v>23.020267</v>
       </c>
       <c r="AG18" s="1">
-        <v>976.018000</v>
+        <v>976.01800000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.566200</v>
+        <v>-80.566199999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>82883.507345</v>
+        <v>82883.507345000005</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.023196</v>
+        <v>23.023195999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>983.997000</v>
+        <v>983.99699999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.948300</v>
+        <v>-87.948300000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>82894.334972</v>
+        <v>82894.334971999997</v>
       </c>
       <c r="AP18" s="1">
         <v>23.026204</v>
       </c>
       <c r="AQ18" s="1">
-        <v>993.167000</v>
+        <v>993.16700000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>82905.194382</v>
+        <v>82905.194382000001</v>
       </c>
       <c r="AU18" s="1">
         <v>23.029221</v>
       </c>
       <c r="AV18" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>82916.326592</v>
+        <v>82916.326591999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.032313</v>
+        <v>23.032312999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1014.090000</v>
+        <v>1014.09</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.523000</v>
+        <v>-142.523</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>82927.303586</v>
+        <v>82927.303585999995</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.035362</v>
+        <v>23.035361999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.936000</v>
+        <v>-226.93600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>82938.562242</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.038490</v>
+        <v>23.038489999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.084000</v>
+        <v>-362.084</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>82949.320482</v>
+        <v>82949.320481999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.041478</v>
+        <v>23.041478000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1270.510000</v>
+        <v>1270.51</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.139000</v>
+        <v>-570.13900000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>82960.762181</v>
+        <v>82960.762180999998</v>
       </c>
       <c r="BT18" s="1">
         <v>23.044656</v>
       </c>
       <c r="BU18" s="1">
-        <v>1417.590000</v>
+        <v>1417.59</v>
       </c>
       <c r="BV18" s="1">
-        <v>-791.375000</v>
+        <v>-791.375</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>82971.661270</v>
+        <v>82971.661269999997</v>
       </c>
       <c r="BY18" s="1">
         <v>23.047684</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1578.400000</v>
+        <v>1578.4</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1022.690000</v>
+        <v>-1022.69</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>82984.060262</v>
+        <v>82984.060261999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.051128</v>
+        <v>23.051127999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1980.430000</v>
+        <v>1980.43</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1562.210000</v>
+        <v>-1562.21</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>82809.911917</v>
+        <v>82809.911917000005</v>
       </c>
       <c r="B19" s="1">
-        <v>23.002753</v>
+        <v>23.002752999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>909.972000</v>
+        <v>909.97199999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.348000</v>
+        <v>-197.34800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>82820.038249</v>
+        <v>82820.038249000005</v>
       </c>
       <c r="G19" s="1">
-        <v>23.005566</v>
+        <v>23.005566000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>927.164000</v>
+        <v>927.16399999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.405000</v>
+        <v>-167.405</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>82830.903141</v>
+        <v>82830.903141000003</v>
       </c>
       <c r="L19" s="1">
-        <v>23.008584</v>
+        <v>23.008583999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>949.759000</v>
+        <v>949.75900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.489000</v>
+        <v>-120.489</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>82841.431187</v>
+        <v>82841.431186999995</v>
       </c>
       <c r="Q19" s="1">
         <v>23.011509</v>
       </c>
       <c r="R19" s="1">
-        <v>956.578000</v>
+        <v>956.57799999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.130000</v>
+        <v>-105.13</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>82851.929013</v>
+        <v>82851.929013000001</v>
       </c>
       <c r="V19" s="1">
-        <v>23.014425</v>
+        <v>23.014424999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>963.343000</v>
+        <v>963.34299999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-91.187000</v>
+        <v>-91.186999999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>82862.484908</v>
+        <v>82862.484907999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.017357</v>
+        <v>23.017357000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>970.918000</v>
+        <v>970.91800000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-81.327100</v>
+        <v>-81.327100000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>82873.306594</v>
+        <v>82873.306593999994</v>
       </c>
       <c r="AF19" s="1">
         <v>23.020363</v>
       </c>
       <c r="AG19" s="1">
-        <v>975.980000</v>
+        <v>975.98</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.593900</v>
+        <v>-80.593900000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>82883.860267</v>
+        <v>82883.860266999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.023295</v>
+        <v>23.023295000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>983.968000</v>
+        <v>983.96799999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.965100</v>
+        <v>-87.965100000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>82894.694076</v>
@@ -4970,136 +5386,136 @@
         <v>23.026304</v>
       </c>
       <c r="AQ19" s="1">
-        <v>993.183000</v>
+        <v>993.18299999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.578000</v>
+        <v>-102.578</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>82905.624910</v>
+        <v>82905.624909999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.029340</v>
+        <v>23.029340000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.928000</v>
+        <v>-123.928</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>82916.616256</v>
+        <v>82916.616255999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.032393</v>
+        <v>23.032392999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1014.110000</v>
+        <v>1014.11</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.538000</v>
+        <v>-142.53800000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>82927.606182</v>
+        <v>82927.606182000003</v>
       </c>
       <c r="BE19" s="1">
         <v>23.035446</v>
       </c>
       <c r="BF19" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.929000</v>
+        <v>-226.929</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>82938.938495</v>
+        <v>82938.938494999995</v>
       </c>
       <c r="BJ19" s="1">
         <v>23.038594</v>
       </c>
       <c r="BK19" s="1">
-        <v>1138.980000</v>
+        <v>1138.98</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.080000</v>
+        <v>-362.08</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>82949.787708</v>
+        <v>82949.787708000003</v>
       </c>
       <c r="BO19" s="1">
         <v>23.041608</v>
       </c>
       <c r="BP19" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.166000</v>
+        <v>-570.16600000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>82961.172868</v>
+        <v>82961.172867999994</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.044770</v>
+        <v>23.04477</v>
       </c>
       <c r="BU19" s="1">
-        <v>1417.630000</v>
+        <v>1417.63</v>
       </c>
       <c r="BV19" s="1">
-        <v>-791.412000</v>
+        <v>-791.41200000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>82972.093783</v>
+        <v>82972.093783000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.047804</v>
+        <v>23.047803999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1578.350000</v>
+        <v>1578.35</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1022.580000</v>
+        <v>-1022.58</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>82984.575605</v>
+        <v>82984.575605000005</v>
       </c>
       <c r="CD19" s="1">
         <v>23.051271</v>
       </c>
       <c r="CE19" s="1">
-        <v>1981.420000</v>
+        <v>1981.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1563.690000</v>
+        <v>-1563.69</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>82810.251676</v>
       </c>
@@ -5107,43 +5523,43 @@
         <v>23.002848</v>
       </c>
       <c r="C20" s="1">
-        <v>909.802000</v>
+        <v>909.80200000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.384000</v>
+        <v>-197.38399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>82820.695438</v>
+        <v>82820.695437999995</v>
       </c>
       <c r="G20" s="1">
-        <v>23.005749</v>
+        <v>23.005749000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>926.815000</v>
+        <v>926.81500000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.550000</v>
+        <v>-167.55</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>82831.278575</v>
+        <v>82831.278575000004</v>
       </c>
       <c r="L20" s="1">
-        <v>23.008688</v>
+        <v>23.008687999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>949.672000</v>
+        <v>949.67200000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.506000</v>
+        <v>-120.506</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>82841.818562</v>
@@ -5152,133 +5568,133 @@
         <v>23.011616</v>
       </c>
       <c r="R20" s="1">
-        <v>956.526000</v>
+        <v>956.52599999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.171000</v>
+        <v>-105.17100000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>82852.273236</v>
+        <v>82852.273235999994</v>
       </c>
       <c r="V20" s="1">
-        <v>23.014520</v>
+        <v>23.014520000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>963.247000</v>
+        <v>963.24699999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-91.212800</v>
+        <v>-91.212800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>82862.863318</v>
+        <v>82862.863318000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>23.017462</v>
+        <v>23.017461999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>970.897000</v>
+        <v>970.89700000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-81.330100</v>
+        <v>-81.330100000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>82873.657289</v>
+        <v>82873.657288999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.020460</v>
+        <v>23.02046</v>
       </c>
       <c r="AG20" s="1">
-        <v>976.052000</v>
+        <v>976.05200000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.661200</v>
+        <v>-80.661199999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>82884.282554</v>
+        <v>82884.282554000005</v>
       </c>
       <c r="AK20" s="1">
         <v>23.023412</v>
       </c>
       <c r="AL20" s="1">
-        <v>983.984000</v>
+        <v>983.98400000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.922100</v>
+        <v>-87.9221</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>82895.132540</v>
+        <v>82895.132540000006</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.026426</v>
+        <v>23.026426000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>993.158000</v>
+        <v>993.15800000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>82905.923502</v>
+        <v>82905.923502000005</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.029423</v>
+        <v>23.029423000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>82916.976846</v>
+        <v>82916.976846000005</v>
       </c>
       <c r="AZ20" s="1">
         <v>23.032494</v>
       </c>
       <c r="BA20" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.524000</v>
+        <v>-142.524</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>82927.970672</v>
+        <v>82927.970671999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.035547</v>
+        <v>23.035547000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1059.380000</v>
+        <v>1059.3800000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.917000</v>
+        <v>-226.917</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>82939.313681</v>
@@ -5287,13 +5703,13 @@
         <v>23.038698</v>
       </c>
       <c r="BK20" s="1">
-        <v>1139.000000</v>
+        <v>1139</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.084000</v>
+        <v>-362.084</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>82950.398275</v>
@@ -5302,724 +5718,724 @@
         <v>23.041777</v>
       </c>
       <c r="BP20" s="1">
-        <v>1270.520000</v>
+        <v>1270.52</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.134000</v>
+        <v>-570.13400000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>82961.601430</v>
+        <v>82961.601429999995</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.044889</v>
+        <v>23.044889000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1417.650000</v>
+        <v>1417.65</v>
       </c>
       <c r="BV20" s="1">
-        <v>-791.411000</v>
+        <v>-791.41099999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>82972.512901</v>
+        <v>82972.512900999995</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.047920</v>
+        <v>23.047920000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1578.380000</v>
+        <v>1578.38</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1022.600000</v>
+        <v>-1022.6</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>82985.095428</v>
+        <v>82985.095428000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.051415</v>
+        <v>23.051414999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1563.060000</v>
+        <v>-1563.06</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>82810.907896</v>
+        <v>82810.907896000004</v>
       </c>
       <c r="B21" s="1">
-        <v>23.003030</v>
+        <v>23.003029999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>909.962000</v>
+        <v>909.96199999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.316000</v>
+        <v>-197.316</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>82821.073885</v>
+        <v>82821.073885000005</v>
       </c>
       <c r="G21" s="1">
-        <v>23.005854</v>
+        <v>23.005853999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>926.659000</v>
+        <v>926.65899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.989000</v>
+        <v>-166.989</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>82831.621839</v>
+        <v>82831.621838999999</v>
       </c>
       <c r="L21" s="1">
-        <v>23.008784</v>
+        <v>23.008783999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>949.751000</v>
+        <v>949.75099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.397000</v>
+        <v>-120.39700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>82842.169729</v>
+        <v>82842.169729000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.011714</v>
+        <v>23.011714000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>956.525000</v>
+        <v>956.52499999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.138000</v>
+        <v>-105.13800000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>82852.616963</v>
+        <v>82852.616962999993</v>
       </c>
       <c r="V21" s="1">
         <v>23.014616</v>
       </c>
       <c r="W21" s="1">
-        <v>963.382000</v>
+        <v>963.38199999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-91.172000</v>
+        <v>-91.171999999999997</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>82863.186251</v>
+        <v>82863.186251000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.017552</v>
+        <v>23.017551999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>970.838000</v>
+        <v>970.83799999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-81.302500</v>
+        <v>-81.302499999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>82874.080343</v>
+        <v>82874.080342999994</v>
       </c>
       <c r="AF21" s="1">
         <v>23.020578</v>
       </c>
       <c r="AG21" s="1">
-        <v>976.025000</v>
+        <v>976.02499999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.594200</v>
+        <v>-80.594200000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>82884.555354</v>
+        <v>82884.555353999996</v>
       </c>
       <c r="AK21" s="1">
         <v>23.023488</v>
       </c>
       <c r="AL21" s="1">
-        <v>983.972000</v>
+        <v>983.97199999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.957900</v>
+        <v>-87.957899999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>82895.417767</v>
+        <v>82895.417767000006</v>
       </c>
       <c r="AP21" s="1">
         <v>23.026505</v>
       </c>
       <c r="AQ21" s="1">
-        <v>993.174000</v>
+        <v>993.17399999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.601000</v>
+        <v>-102.601</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>82906.288094</v>
+        <v>82906.288094000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.029524</v>
+        <v>23.029523999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.920000</v>
+        <v>-123.92</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>82917.336943</v>
+        <v>82917.336943000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>23.032594</v>
       </c>
       <c r="BA21" s="1">
-        <v>1014.110000</v>
+        <v>1014.11</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.525000</v>
+        <v>-142.52500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>82928.329808</v>
+        <v>82928.329807999995</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.035647</v>
+        <v>23.035647000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.917000</v>
+        <v>-226.917</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>82940.064160</v>
+        <v>82940.064159999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.038907</v>
+        <v>23.038906999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.092000</v>
+        <v>-362.09199999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>82950.554113</v>
+        <v>82950.554113000006</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.041821</v>
+        <v>23.041820999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.158000</v>
+        <v>-570.15800000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>82962.029956</v>
+        <v>82962.029955999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.045008</v>
+        <v>23.045007999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1417.690000</v>
+        <v>1417.69</v>
       </c>
       <c r="BV21" s="1">
-        <v>-791.426000</v>
+        <v>-791.42600000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>82972.935016</v>
+        <v>82972.935016000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.048038</v>
+        <v>23.048037999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1022.590000</v>
+        <v>-1022.59</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>82985.962915</v>
+        <v>82985.962914999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.051656</v>
+        <v>23.051656000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1980.580000</v>
+        <v>1980.58</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1562.200000</v>
+        <v>-1562.2</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>82811.273932</v>
+        <v>82811.273931999996</v>
       </c>
       <c r="B22" s="1">
-        <v>23.003132</v>
+        <v>23.003132000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>909.868000</v>
+        <v>909.86800000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.378000</v>
+        <v>-197.37799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>82821.413645</v>
+        <v>82821.413644999993</v>
       </c>
       <c r="G22" s="1">
         <v>23.005948</v>
       </c>
       <c r="H22" s="1">
-        <v>927.275000</v>
+        <v>927.27499999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.776000</v>
+        <v>-167.77600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>82831.969007</v>
+        <v>82831.969007000007</v>
       </c>
       <c r="L22" s="1">
-        <v>23.008880</v>
+        <v>23.008880000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>949.690000</v>
+        <v>949.69</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.490000</v>
+        <v>-120.49</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>82842.517425</v>
+        <v>82842.517424999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.011810</v>
+        <v>23.011810000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>956.574000</v>
+        <v>956.57399999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.082000</v>
+        <v>-105.08199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>82853.047987</v>
+        <v>82853.047986999998</v>
       </c>
       <c r="V22" s="1">
-        <v>23.014736</v>
+        <v>23.014735999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>963.370000</v>
+        <v>963.37</v>
       </c>
       <c r="X22" s="1">
-        <v>-91.259100</v>
+        <v>-91.259100000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>82863.883092</v>
+        <v>82863.883092000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.017745</v>
+        <v>23.017745000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>970.904000</v>
+        <v>970.904</v>
       </c>
       <c r="AC22" s="1">
-        <v>-81.290200</v>
+        <v>-81.290199999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>82874.359591</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.020655</v>
+        <v>23.020655000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>975.995000</v>
+        <v>975.995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.580200</v>
+        <v>-80.580200000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>82884.907049</v>
+        <v>82884.907049000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.023585</v>
+        <v>23.023585000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>983.989000</v>
+        <v>983.98900000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.939700</v>
+        <v>-87.939700000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>82895.779830</v>
+        <v>82895.779829999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.026606</v>
+        <v>23.026606000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>993.168000</v>
+        <v>993.16800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.598000</v>
+        <v>-102.598</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>82906.653614</v>
+        <v>82906.653613999995</v>
       </c>
       <c r="AU22" s="1">
         <v>23.029626</v>
       </c>
       <c r="AV22" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.915000</v>
+        <v>-123.91500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>82918.054653</v>
+        <v>82918.054652999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.032793</v>
+        <v>23.032793000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1014.120000</v>
+        <v>1014.12</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.525000</v>
+        <v>-142.52500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>82929.051952</v>
+        <v>82929.051951999994</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.035848</v>
+        <v>23.035848000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.906000</v>
+        <v>-226.90600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>82940.430672</v>
+        <v>82940.430672000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>23.039009</v>
       </c>
       <c r="BK22" s="1">
-        <v>1138.960000</v>
+        <v>1138.96</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.088000</v>
+        <v>-362.08800000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>82950.951315</v>
+        <v>82950.951314999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.041931</v>
+        <v>23.041931000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.160000</v>
+        <v>-570.16</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>82962.444116</v>
+        <v>82962.444115999999</v>
       </c>
       <c r="BT22" s="1">
         <v>23.045123</v>
       </c>
       <c r="BU22" s="1">
-        <v>1417.750000</v>
+        <v>1417.75</v>
       </c>
       <c r="BV22" s="1">
-        <v>-791.382000</v>
+        <v>-791.38199999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>82973.664649</v>
+        <v>82973.664648999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.048240</v>
+        <v>23.04824</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1578.250000</v>
+        <v>1578.25</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1022.620000</v>
+        <v>-1022.62</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>82986.177188</v>
+        <v>82986.177188000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>23.051716</v>
+        <v>23.051715999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1981.390000</v>
+        <v>1981.39</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1563.620000</v>
+        <v>-1563.62</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>82811.617162</v>
+        <v>82811.617161999995</v>
       </c>
       <c r="B23" s="1">
-        <v>23.003227</v>
+        <v>23.003226999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>910.042000</v>
+        <v>910.04200000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.419000</v>
+        <v>-197.41900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>82821.762865</v>
+        <v>82821.762864999997</v>
       </c>
       <c r="G23" s="1">
         <v>23.006045</v>
       </c>
       <c r="H23" s="1">
-        <v>927.030000</v>
+        <v>927.03</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.608000</v>
+        <v>-167.608</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>82832.393086</v>
+        <v>82832.393085999996</v>
       </c>
       <c r="L23" s="1">
-        <v>23.008998</v>
+        <v>23.008997999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>949.753000</v>
+        <v>949.75300000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.516000</v>
+        <v>-120.51600000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>82842.946465</v>
+        <v>82842.946465000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.011930</v>
+        <v>23.01193</v>
       </c>
       <c r="R23" s="1">
-        <v>956.588000</v>
+        <v>956.58799999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.112000</v>
+        <v>-105.11199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>82853.325252</v>
+        <v>82853.325251999995</v>
       </c>
       <c r="V23" s="1">
         <v>23.014813</v>
       </c>
       <c r="W23" s="1">
-        <v>963.361000</v>
+        <v>963.36099999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-91.242000</v>
+        <v>-91.242000000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>82864.230820</v>
+        <v>82864.230819999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.017842</v>
+        <v>23.017842000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>970.908000</v>
+        <v>970.90800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-81.304600</v>
+        <v>-81.304599999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>82874.702850</v>
+        <v>82874.702850000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.020751</v>
+        <v>23.020751000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>975.954000</v>
+        <v>975.95399999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.562200</v>
+        <v>-80.562200000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>82885.252232</v>
+        <v>82885.252231999999</v>
       </c>
       <c r="AK23" s="1">
         <v>23.023681</v>
       </c>
       <c r="AL23" s="1">
-        <v>984.014000</v>
+        <v>984.01400000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.941100</v>
+        <v>-87.941100000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>82896.139458</v>
+        <v>82896.139458000005</v>
       </c>
       <c r="AP23" s="1">
         <v>23.026705</v>
       </c>
       <c r="AQ23" s="1">
-        <v>993.160000</v>
+        <v>993.16</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.592000</v>
+        <v>-102.592</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>82907.381739</v>
+        <v>82907.381739000004</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.029828</v>
+        <v>23.029827999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.907000</v>
+        <v>-123.907</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>82918.411773</v>
@@ -6028,43 +6444,43 @@
         <v>23.032892</v>
       </c>
       <c r="BA23" s="1">
-        <v>1014.110000</v>
+        <v>1014.11</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.510000</v>
+        <v>-142.51</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>82929.412079</v>
+        <v>82929.412079000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.035948</v>
+        <v>23.035948000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.928000</v>
+        <v>-226.928</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>82940.815599</v>
+        <v>82940.815598999994</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.039115</v>
+        <v>23.039114999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1138.960000</v>
+        <v>1138.96</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.092000</v>
+        <v>-362.09199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>82951.692337</v>
@@ -6073,709 +6489,709 @@
         <v>23.042137</v>
       </c>
       <c r="BP23" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.153000</v>
+        <v>-570.15300000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>82963.190625</v>
+        <v>82963.190625000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.045331</v>
+        <v>23.045331000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1417.820000</v>
+        <v>1417.82</v>
       </c>
       <c r="BV23" s="1">
-        <v>-791.527000</v>
+        <v>-791.52700000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>82973.768275</v>
+        <v>82973.768274999995</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.048269</v>
+        <v>23.048269000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1578.300000</v>
+        <v>1578.3</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1022.660000</v>
+        <v>-1022.66</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>82986.696002</v>
+        <v>82986.696001999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>23.051860</v>
+        <v>23.051860000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1982.620000</v>
+        <v>1982.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1562.890000</v>
+        <v>-1562.89</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>82812.044217</v>
+        <v>82812.044217000002</v>
       </c>
       <c r="B24" s="1">
-        <v>23.003346</v>
+        <v>23.003346000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>910.051000</v>
+        <v>910.05100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.241000</v>
+        <v>-197.24100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>82822.188397</v>
+        <v>82822.188397000005</v>
       </c>
       <c r="G24" s="1">
-        <v>23.006163</v>
+        <v>23.006163000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>926.657000</v>
+        <v>926.65700000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.400000</v>
+        <v>-167.4</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>82832.661951</v>
+        <v>82832.661951000002</v>
       </c>
       <c r="L24" s="1">
-        <v>23.009073</v>
+        <v>23.009073000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>949.860000</v>
+        <v>949.86</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.473000</v>
+        <v>-120.473</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>82843.216784</v>
+        <v>82843.216784000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>23.012005</v>
+        <v>23.012004999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>956.578000</v>
+        <v>956.57799999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.146000</v>
+        <v>-105.146</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>82853.668484</v>
+        <v>82853.668483999994</v>
       </c>
       <c r="V24" s="1">
-        <v>23.014908</v>
+        <v>23.014907999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>963.360000</v>
+        <v>963.36</v>
       </c>
       <c r="X24" s="1">
-        <v>-91.263000</v>
+        <v>-91.263000000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>82864.581460</v>
+        <v>82864.581460000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.017939</v>
+        <v>23.017938999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>970.890000</v>
+        <v>970.89</v>
       </c>
       <c r="AC24" s="1">
-        <v>-81.346800</v>
+        <v>-81.346800000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>82875.047046</v>
+        <v>82875.047046000007</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.020846</v>
+        <v>23.020845999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>976.038000</v>
+        <v>976.03800000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.571500</v>
+        <v>-80.5715</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>82885.943407</v>
+        <v>82885.943406999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>23.023873</v>
+        <v>23.023872999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>983.996000</v>
+        <v>983.99599999999998</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.941100</v>
+        <v>-87.941100000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>82896.865561</v>
+        <v>82896.865560999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.026907</v>
+        <v>23.026907000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>993.186000</v>
+        <v>993.18600000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>82907.771626</v>
+        <v>82907.771626000002</v>
       </c>
       <c r="AU24" s="1">
         <v>23.029937</v>
       </c>
       <c r="AV24" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>82918.771868</v>
+        <v>82918.771867999996</v>
       </c>
       <c r="AZ24" s="1">
         <v>23.032992</v>
       </c>
       <c r="BA24" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.536000</v>
+        <v>-142.536</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>82929.772639</v>
+        <v>82929.772639000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.036048</v>
+        <v>23.036048000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.930000</v>
+        <v>-226.93</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>82941.503518</v>
+        <v>82941.503517999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.039307</v>
+        <v>23.039307000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1138.970000</v>
+        <v>1138.97</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.074000</v>
+        <v>-362.07400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>82952.192800</v>
+        <v>82952.192800000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.042276</v>
+        <v>23.042276000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.168000</v>
+        <v>-570.16800000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>82963.301729</v>
+        <v>82963.301728999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.045362</v>
+        <v>23.045362000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1417.830000</v>
+        <v>1417.83</v>
       </c>
       <c r="BV24" s="1">
-        <v>-791.492000</v>
+        <v>-791.49199999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>82974.213715</v>
+        <v>82974.213715000005</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.048393</v>
+        <v>23.048393000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1578.290000</v>
+        <v>1578.29</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1022.740000</v>
+        <v>-1022.74</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>82987.211842</v>
+        <v>82987.211842000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.052003</v>
+        <v>23.052002999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1981.990000</v>
+        <v>1981.99</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1562.010000</v>
+        <v>-1562.01</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>82812.325449</v>
+        <v>82812.325448999996</v>
       </c>
       <c r="B25" s="1">
-        <v>23.003424</v>
+        <v>23.003423999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>909.955000</v>
+        <v>909.95500000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.368000</v>
+        <v>-197.36799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>82822.479580</v>
+        <v>82822.479579999999</v>
       </c>
       <c r="G25" s="1">
-        <v>23.006244</v>
+        <v>23.006243999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>927.121000</v>
+        <v>927.12099999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.998000</v>
+        <v>-166.99799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>82833.006182</v>
+        <v>82833.006181999997</v>
       </c>
       <c r="L25" s="1">
-        <v>23.009168</v>
+        <v>23.009167999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>949.728000</v>
+        <v>949.72799999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.620000</v>
+        <v>-120.62</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>82843.565473</v>
+        <v>82843.565472999995</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.012102</v>
+        <v>23.012101999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>956.598000</v>
+        <v>956.59799999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.149000</v>
+        <v>-105.149</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>82854.016178</v>
+        <v>82854.016178000005</v>
       </c>
       <c r="V25" s="1">
-        <v>23.015004</v>
+        <v>23.015004000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>963.259000</v>
+        <v>963.25900000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-91.271900</v>
+        <v>-91.271900000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>82865.279332</v>
+        <v>82865.279332000006</v>
       </c>
       <c r="AA25" s="1">
-        <v>23.018133</v>
+        <v>23.018132999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>970.830000</v>
+        <v>970.83</v>
       </c>
       <c r="AC25" s="1">
-        <v>-81.349400</v>
+        <v>-81.349400000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>82875.733509</v>
+        <v>82875.733508999998</v>
       </c>
       <c r="AF25" s="1">
         <v>23.021037</v>
       </c>
       <c r="AG25" s="1">
-        <v>976.023000</v>
+        <v>976.02300000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.555900</v>
+        <v>-80.555899999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>82886.301271</v>
+        <v>82886.301271000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.023973</v>
+        <v>23.023973000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>983.998000</v>
+        <v>983.99800000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.947500</v>
+        <v>-87.947500000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>82897.242520</v>
+        <v>82897.24252</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.027012</v>
+        <v>23.027011999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>993.159000</v>
+        <v>993.15899999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>82908.133674</v>
+        <v>82908.133673999997</v>
       </c>
       <c r="AU25" s="1">
         <v>23.030037</v>
       </c>
       <c r="AV25" s="1">
-        <v>1004.500000</v>
+        <v>1004.5</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.896000</v>
+        <v>-123.896</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>82919.442988</v>
+        <v>82919.442987999995</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.033179</v>
+        <v>23.033179000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.518000</v>
+        <v>-142.518</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>82930.456125</v>
+        <v>82930.456124999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.036238</v>
+        <v>23.036238000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1059.360000</v>
+        <v>1059.3599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.920000</v>
+        <v>-226.92</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>82941.939535</v>
+        <v>82941.939534999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>23.039428</v>
+        <v>23.039428000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1139.000000</v>
+        <v>1139</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.060000</v>
+        <v>-362.06</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>82952.611920</v>
+        <v>82952.611919999996</v>
       </c>
       <c r="BO25" s="1">
         <v>23.042392</v>
       </c>
       <c r="BP25" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.184000</v>
+        <v>-570.18399999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>82963.740689</v>
+        <v>82963.740688999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.045484</v>
+        <v>23.045483999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1417.860000</v>
+        <v>1417.86</v>
       </c>
       <c r="BV25" s="1">
-        <v>-791.521000</v>
+        <v>-791.52099999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>82974.636276</v>
+        <v>82974.636276000005</v>
       </c>
       <c r="BY25" s="1">
-        <v>23.048510</v>
+        <v>23.04851</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1578.380000</v>
+        <v>1578.38</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1022.810000</v>
+        <v>-1022.81</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>82987.734651</v>
+        <v>82987.734651000006</v>
       </c>
       <c r="CD25" s="1">
         <v>23.052149</v>
       </c>
       <c r="CE25" s="1">
-        <v>1980.850000</v>
+        <v>1980.85</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1562.570000</v>
+        <v>-1562.57</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>82812.665704</v>
+        <v>82812.665703999999</v>
       </c>
       <c r="B26" s="1">
         <v>23.003518</v>
       </c>
       <c r="C26" s="1">
-        <v>910.052000</v>
+        <v>910.05200000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.332000</v>
+        <v>-197.33199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>82822.824299</v>
       </c>
       <c r="G26" s="1">
-        <v>23.006340</v>
+        <v>23.006340000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>927.171000</v>
+        <v>927.17100000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.357000</v>
+        <v>-167.357</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>82833.351853</v>
       </c>
       <c r="L26" s="1">
-        <v>23.009264</v>
+        <v>23.009264000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>949.635000</v>
+        <v>949.63499999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.561000</v>
+        <v>-120.56100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>82843.913167</v>
+        <v>82843.913167000006</v>
       </c>
       <c r="Q26" s="1">
-        <v>23.012198</v>
+        <v>23.012198000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>956.518000</v>
+        <v>956.51800000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.108000</v>
+        <v>-105.108</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>82854.700657</v>
+        <v>82854.700656999994</v>
       </c>
       <c r="V26" s="1">
-        <v>23.015195</v>
+        <v>23.015194999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>963.278000</v>
+        <v>963.27800000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-91.105900</v>
+        <v>-91.105900000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>82865.627525</v>
+        <v>82865.627525000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.018230</v>
+        <v>23.018229999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>970.898000</v>
+        <v>970.89800000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-81.285500</v>
+        <v>-81.285499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>82876.078229</v>
+        <v>82876.078229000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.021133</v>
+        <v>23.021132999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>975.972000</v>
+        <v>975.97199999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.602600</v>
+        <v>-80.602599999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>82886.647516</v>
+        <v>82886.647515999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>23.024069</v>
+        <v>23.024069000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>983.991000</v>
+        <v>983.99099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.943000</v>
+        <v>-87.942999999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>82897.602122</v>
+        <v>82897.602121999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.027112</v>
+        <v>23.027111999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>993.175000</v>
+        <v>993.17499999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.579000</v>
+        <v>-102.57899999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>82908.818153</v>
@@ -6784,120 +7200,121 @@
         <v>23.030227</v>
       </c>
       <c r="AV26" s="1">
-        <v>1004.510000</v>
+        <v>1004.51</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>82919.848194</v>
+        <v>82919.848194000006</v>
       </c>
       <c r="AZ26" s="1">
-        <v>23.033291</v>
+        <v>23.033290999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1014.100000</v>
+        <v>1014.1</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.525000</v>
+        <v>-142.52500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>82930.880204</v>
+        <v>82930.880204000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.036356</v>
+        <v>23.036356000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1059.370000</v>
+        <v>1059.3699999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.922000</v>
+        <v>-226.922</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>82942.314013</v>
+        <v>82942.314012999996</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.039532</v>
+        <v>23.039532000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1138.960000</v>
+        <v>1138.96</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.066000</v>
+        <v>-362.06599999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>82953.008758</v>
+        <v>82953.008757999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.042502</v>
+        <v>23.042501999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.136000</v>
+        <v>-570.13599999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>82964.148864</v>
+        <v>82964.148864000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.045597</v>
+        <v>23.045597000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1417.880000</v>
+        <v>1417.88</v>
       </c>
       <c r="BV26" s="1">
-        <v>-791.553000</v>
+        <v>-791.553</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>82975.055891</v>
+        <v>82975.055890999996</v>
       </c>
       <c r="BY26" s="1">
         <v>23.048627</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1578.420000</v>
+        <v>1578.42</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1022.750000</v>
+        <v>-1022.75</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>82988.252480</v>
+        <v>82988.252479999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.052292</v>
+        <v>23.052292000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1981.770000</v>
+        <v>1981.77</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1563.750000</v>
+        <v>-1563.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>